--- a/hotrod-project/docs/research/live-sql/functions.xlsx
+++ b/hotrod-project/docs/research/live-sql/functions.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LiveSQL" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Function Comparison" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="167">
   <si>
     <t xml:space="preserve">Core functions - Implementations in different database engines</t>
   </si>
@@ -41,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">listagg(x [, sep]) within group (order by y) *1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">DB2</t>
@@ -478,6 +482,84 @@
   <si>
     <t xml:space="preserve">UTC+4</t>
   </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_value()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_value()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cume_dist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentile_cont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentile_disct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_to_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_dev_pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_dev_samp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var_pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var_samp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_SLOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_INTERCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_AVGX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_AVGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_SXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_SYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGR_SXY</t>
+  </si>
 </sst>
 </file>
 
@@ -486,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -518,6 +600,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -589,7 +678,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -646,14 +735,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -719,26 +812,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6581632653061"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,20 +905,22 @@
         <v>6</v>
       </c>
       <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
+      <c r="E6" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
@@ -835,13 +930,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -851,13 +946,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -867,13 +962,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -883,13 +978,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
@@ -899,13 +994,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -915,13 +1010,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -931,13 +1026,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="0"/>
@@ -947,13 +1042,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -973,7 +1068,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -985,7 +1080,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -997,7 +1092,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -1009,7 +1104,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -1021,7 +1116,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -1033,7 +1128,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -1045,7 +1140,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -1067,7 +1162,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1082,25 +1177,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,259 +1203,259 @@
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,7 +1469,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -1386,7 +1481,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -1398,7 +1493,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -1410,7 +1505,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -1431,7 +1526,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1446,25 +1541,25 @@
         <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,259 +1567,259 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,7 +1833,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1750,7 +1845,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
@@ -1762,7 +1857,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
@@ -1792,7 +1887,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1807,333 +1902,333 @@
         <v>2</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B70" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E70" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,27 +2236,419 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A82:H82"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/hotrod-project/docs/research/live-sql/functions.xlsx
+++ b/hotrod-project/docs/research/live-sql/functions.xlsx
@@ -818,11 +818,11 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.47"/>
@@ -2021,7 +2021,7 @@
         <v>116</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>117</v>
@@ -2455,7 +2455,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="11.52"/>
